--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2902180.084435287</v>
+        <v>3006359.718886359</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>19.84006383513692</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0633545968152</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>129.1721819464391</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.6691646375095</v>
+        <v>234.3516201411689</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>57.68750238080799</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>90.86313539611861</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1190,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>15.83694765564113</v>
+        <v>62.92930610001552</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>144.8774958536571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>73.61932336881561</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>119.4946167489003</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>74.53917159609115</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>76.95889114479584</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>30.0683013140589</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629297</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>218.2271298596247</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>94.64226186542979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>186.6664387710204</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>44.75138076689395</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.974488840439133</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>79.70119244397758</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>954.607838657666</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>543.6219338680585</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>128.5494837130549</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080128</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986301</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>215.0609594592695</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>215.0609594592695</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U4" t="n">
-        <v>1706.987139384971</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1452.302651179084</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.885481142124</v>
+        <v>845.4915543310567</v>
       </c>
       <c r="X4" t="n">
-        <v>934.8959302441062</v>
+        <v>617.5020034330394</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.1033511005761</v>
+        <v>396.7094242895092</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2746.967338392416</v>
+        <v>3088.887013385769</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.5194080306463</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.9995076393842</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>270.9995076393842</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>270.9995076393842</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.399672675091</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1015.399672675091</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>794.6070935315613</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>296.6049994797555</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>296.6049994797555</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,13 +5363,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5413,73 +5415,73 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1087555692761</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>169.1087555692761</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4660.461130869241</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4477.606296524145</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4477.606296524145</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>4188.531069868343</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>3933.846581662457</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>3644.429411625496</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>3416.439860727478</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>3195.647281583948</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6421,13 +6423,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2951.54259528685</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>2782.606412358944</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>2632.489772946608</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>3581.973190158637</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X34" t="n">
-        <v>3353.98363926062</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y34" t="n">
-        <v>3133.19106011709</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7156,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4180.29829063852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3890.88112060156</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>20.80009609732362</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.726664722474382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>148.7507642442413</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>36.30694539606276</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>68.29586847696629</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>191.8807364711612</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>31.91821458107441</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>136.2749052347506</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>141.45947380613</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>66.7327702025916</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>35.11263957635606</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748696.6963180522</v>
+        <v>748696.6963180521</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.054705732759963e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,13 +26444,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624776</v>
+        <v>-828537.3049624781</v>
       </c>
       <c r="C6" t="n">
+        <v>500207.4407651155</v>
+      </c>
+      <c r="D6" t="n">
         <v>500207.4407651151</v>
       </c>
-      <c r="D6" t="n">
-        <v>500207.4407651152</v>
-      </c>
       <c r="E6" t="n">
-        <v>248982.529818462</v>
+        <v>248982.5298184619</v>
       </c>
       <c r="F6" t="n">
+        <v>574394.9916258175</v>
+      </c>
+      <c r="G6" t="n">
         <v>574394.9916258171</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>574394.9916258175</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>574394.9916258173</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>356863.7892285398</v>
+      </c>
+      <c r="K6" t="n">
         <v>574394.9916258176</v>
-      </c>
-      <c r="J6" t="n">
-        <v>356863.7892285399</v>
-      </c>
-      <c r="K6" t="n">
-        <v>574394.9916258175</v>
       </c>
       <c r="L6" t="n">
         <v>574394.9916258174</v>
       </c>
       <c r="M6" t="n">
-        <v>489339.9636903059</v>
+        <v>489339.9636903057</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.9916258174</v>
+        <v>574394.991625817</v>
       </c>
       <c r="O6" t="n">
+        <v>574394.9916258173</v>
+      </c>
+      <c r="P6" t="n">
         <v>574394.9916258175</v>
-      </c>
-      <c r="P6" t="n">
-        <v>574394.9916258173</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26697,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,13 +26971,13 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758547</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.7677005521836</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.552118421397125</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.0396562591738</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0830938326255</v>
+        <v>93.40063832896604</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88.74646026576119</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>134.8465199929186</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>333.4040210617719</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>141.6455024829339</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.9653299832792</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31835,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>433.9798411722579</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>291.8458072502395</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006359.718886359</v>
+        <v>3002347.108872367</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.099573361141621</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>19.84006383513692</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>147.0633545968152</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.4038356853005</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3939120001633</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>234.3516201411689</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.398536716038111</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>90.86313539611861</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>62.92930610001552</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.61932336881561</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>119.4946167489003</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594684</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>76.95889114479584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.0683013140589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>75.12653431054493</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>218.2271298596247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.6664387710204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>44.75138076689395</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4.974488840439133</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>79.70119244397758</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.873537264416</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>954.607838657666</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>954.607838657666</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>543.6219338680585</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>128.5494837130549</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.0609594592695</v>
+        <v>1075.097337786231</v>
       </c>
       <c r="C4" t="n">
-        <v>215.0609594592695</v>
+        <v>906.1611548583246</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>756.0445154459888</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>608.1314218635957</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>461.2414743656853</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>293.5386377404043</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368017</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310567</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330394</v>
+        <v>1477.538381760001</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.7094242895092</v>
+        <v>1256.745802616471</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3088.887013385769</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.118358115654</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>850.493580837645</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>681.5573979097381</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>531.4407584974024</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>383.5276649150093</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>236.6377174170989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>68.93488079181787</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X7" t="n">
-        <v>945.3964936596652</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y7" t="n">
-        <v>945.3964936596652</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
         <v>1232.150970528558</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.179085794172</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.5934525793617</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>832.2419174096015</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5135,13 +5135,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>443.4949469776659</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>296.6049994797555</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>296.6049994797555</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4660.461130869241</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4477.606296524145</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4477.606296524145</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4188.531069868343</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3933.846581662457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3644.429411625496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3416.439860727478</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3195.647281583948</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2401.759668664206</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856866</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>489.836033045444</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159263</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.26032167505</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>862.324138747143</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>712.2074993348073</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.70136564882</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.90878650529</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.80009609732362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>148.7507642442413</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.30694539606276</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.39760398172392</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>68.29586847696629</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.91821458107441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.2749052347506</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>141.45947380613</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>66.7327702025916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748696.6963180521</v>
+        <v>748696.6963180522</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
@@ -26322,34 +26322,34 @@
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624781</v>
+        <v>-828537.3049624774</v>
       </c>
       <c r="C6" t="n">
-        <v>500207.4407651155</v>
+        <v>500207.4407651149</v>
       </c>
       <c r="D6" t="n">
         <v>500207.4407651151</v>
       </c>
       <c r="E6" t="n">
-        <v>248982.5298184619</v>
+        <v>248635.1505641052</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714603</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258171</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258173</v>
+        <v>574047.6123714603</v>
       </c>
       <c r="J6" t="n">
-        <v>356863.7892285398</v>
+        <v>356516.4099741828</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258176</v>
+        <v>574047.6123714607</v>
       </c>
       <c r="L6" t="n">
-        <v>574394.9916258174</v>
+        <v>574047.6123714603</v>
       </c>
       <c r="M6" t="n">
-        <v>489339.9636903057</v>
+        <v>488992.5844359485</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714607</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.9916258173</v>
+        <v>574047.6123714603</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714605</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>373.634268302339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>274.7677005521836</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.552118421397125</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>16.35117922902023</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>82.8789797708443</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>93.40063832896604</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>142.3564781982827</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>134.8465199929186</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>286.3116626173975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.9653299832792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722579</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.190340064064</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3002347.108872367</v>
+        <v>3004107.639175152</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548760.030614413</v>
+        <v>8548760.030614415</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.099573361141621</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103589</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>128.4038356853005</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.764733482686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>282.3939120001633</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.4070179429945</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>2.398536716038111</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.45713216103746</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.76470074482877</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>139.1584054594684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>75.12653431054493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>43.7384661432547</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>2.607010073152018</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
@@ -4336,13 +4336,13 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1075.097337786231</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>906.1611548583246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>756.0445154459888</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>608.1314218635957</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>461.2414743656853</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>293.5386377404043</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="X4" t="n">
-        <v>1477.538381760001</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1256.745802616471</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493311</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850.493580837645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>681.5573979097381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>531.4407584974024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>383.5276649150093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>236.6377174170989</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>68.93488079181787</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1480.924175709432</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1252.934624811415</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1032.142045667885</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>546.5917956728314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>398.6787020904383</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>634.334587849125</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,16 +7736,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>90.39760398172392</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>101.6825818796765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.8269525734171</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
@@ -26331,31 +26331,31 @@
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813262</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813257</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89744.12305813249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624774</v>
+        <v>-828537.3049624772</v>
       </c>
       <c r="C6" t="n">
-        <v>500207.4407651149</v>
+        <v>500207.4407651147</v>
       </c>
       <c r="D6" t="n">
-        <v>500207.4407651151</v>
+        <v>500207.4407651147</v>
       </c>
       <c r="E6" t="n">
-        <v>248635.1505641052</v>
+        <v>248947.7918930263</v>
       </c>
       <c r="F6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="G6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="H6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="I6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="J6" t="n">
-        <v>356516.4099741828</v>
+        <v>356829.0513031042</v>
       </c>
       <c r="K6" t="n">
-        <v>574047.6123714607</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="L6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="M6" t="n">
-        <v>488992.5844359485</v>
+        <v>489305.2257648697</v>
       </c>
       <c r="N6" t="n">
-        <v>574047.6123714607</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="O6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="P6" t="n">
-        <v>574047.6123714605</v>
+        <v>574360.2537003822</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.634268302339</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>306.4732379112259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.35117922902023</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.94492190635117</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.8789797708443</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>67.83092071305907</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3564781982827</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34456,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
